--- a/doc5/UE4-Android-开启Sanitizer问题.xlsx
+++ b/doc5/UE4-Android-开启Sanitizer问题.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F027A30A-2652-4A6F-8172-E14FF3231F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>使用UE4.27，开启Sanitizer后总是各种崩溃</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,13 +50,81 @@
   </si>
   <si>
     <t>目前根据堆栈排查代码没有问题，具体会误报？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,halt_on_error=false,abort_on_error=false</t>
+  </si>
+  <si>
+    <t>不过好像还是查不出来问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题代码示例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class AAA</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>public:</t>
+  </si>
+  <si>
+    <t>int a = 10;</t>
+  </si>
+  <si>
+    <t>int b = 99;</t>
+  </si>
+  <si>
+    <t>char buffer[1024];</t>
+  </si>
+  <si>
+    <t>int cc[10];</t>
+  </si>
+  <si>
+    <t>char* buffer2 = nullptr;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int a = 1024;</t>
+  </si>
+  <si>
+    <t>void test(AAA* pp)</t>
+  </si>
+  <si>
+    <t>pp-&gt;buffer[a++] = 'a';</t>
+  </si>
+  <si>
+    <t>pp-&gt;buffer[a++] = 'd';</t>
+  </si>
+  <si>
+    <t>AAA aa;</t>
+  </si>
+  <si>
+    <t>test(&amp;aa);</t>
+  </si>
+  <si>
+    <t>越界访问，没检查出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,11 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,6 +530,116 @@
         <v>6</v>
       </c>
     </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc5/UE4-Android-开启Sanitizer问题.xlsx
+++ b/doc5/UE4-Android-开启Sanitizer问题.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A1FBF0-9C25-4C84-9E05-22DC8E2EEFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>使用UE4.27，开启Sanitizer后总是各种崩溃</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,13 +119,30 @@
   </si>
   <si>
     <t>越界访问，没检查出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意，UE本身的一些代码写法就不正规，会导致报错：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenericWidePlatformString.cpp</t>
+  </si>
+  <si>
+    <t>while (StringSize-- &gt; 0 &amp;&amp; *String++)</t>
+  </si>
+  <si>
+    <t>++Len;</t>
+  </si>
+  <si>
+    <t>大量的这么写法，会导致检测的时候报栈溢出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,16 +487,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -486,7 +504,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -494,12 +512,20 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -510,12 +536,30 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>2</v>
       </c>
@@ -524,8 +568,11 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>6</v>
       </c>

--- a/doc5/UE4-Android-开启Sanitizer问题.xlsx
+++ b/doc5/UE4-Android-开启Sanitizer问题.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A1FBF0-9C25-4C84-9E05-22DC8E2EEFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4F90AE-7E97-4A7A-9B01-8C02B073F360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>使用UE4.27，开启Sanitizer后总是各种崩溃</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,14 @@
   </si>
   <si>
     <t>大量的这么写法，会导致检测的时候报栈溢出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于ASAN，对于空字符串“”的访问也会报错，非法的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是UE里面大量的这种操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +499,7 @@
   <dimension ref="B2:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,59 +585,69 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>17</v>
       </c>

--- a/doc5/UE4-Android-开启Sanitizer问题.xlsx
+++ b/doc5/UE4-Android-开启Sanitizer问题.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4F90AE-7E97-4A7A-9B01-8C02B073F360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE42599F-B530-40B7-9684-F70F918B6B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>使用UE4.27，开启Sanitizer后总是各种崩溃</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,26 @@
   </si>
   <si>
     <t>但是UE里面大量的这种操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警惕栈对象析构后再次访问！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！UE自身内存分配的是误报，不用管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其每次对齐方式分配内存块后，会将前面几个字节设置为原始PTR和SIZE，然后返回真实的那一块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次memset只针对返回的，所以会误报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +519,7 @@
   <dimension ref="B2:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,6 +563,9 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O10" s="3" t="s">
@@ -585,69 +608,83 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>17</v>
       </c>
